--- a/config_Release/act_041_yybjsj_config.xlsx
+++ b/config_Release/act_041_yybjsj_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="yybjsj|normal" sheetId="14" r:id="rId1"/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
